--- a/SchedulingData/static7/pso/scheduling1_3.xlsx
+++ b/SchedulingData/static7/pso/scheduling1_3.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E62"/>
+  <dimension ref="A1:E63"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -462,173 +462,173 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>pond7</t>
+          <t>pond52</t>
         </is>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>55.58</v>
+        <v>70.76000000000001</v>
       </c>
       <c r="E2" t="n">
-        <v>25.632</v>
+        <v>25.584</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>pond52</t>
+          <t>pond40</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>70.76000000000001</v>
+        <v>66.40000000000001</v>
       </c>
       <c r="E3" t="n">
-        <v>25.584</v>
+        <v>25.06</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>pond19</t>
+          <t>pond61</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>55.58</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>123.5</v>
+        <v>75.3</v>
       </c>
       <c r="E4" t="n">
-        <v>21.94</v>
+        <v>26.64</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>pond48</t>
+          <t>pond56</t>
         </is>
       </c>
       <c r="C5" t="n">
         <v>70.76000000000001</v>
       </c>
       <c r="D5" t="n">
-        <v>156.16</v>
+        <v>139.4</v>
       </c>
       <c r="E5" t="n">
-        <v>19.644</v>
+        <v>21.32</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>pond60</t>
+          <t>pond32</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>123.5</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>190</v>
+        <v>70.59999999999999</v>
       </c>
       <c r="E6" t="n">
-        <v>18.42</v>
+        <v>25.14</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>pond27</t>
+          <t>pond6</t>
         </is>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>81.5</v>
+        <v>52.16</v>
       </c>
       <c r="E7" t="n">
-        <v>26</v>
+        <v>26.464</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>pond12</t>
+          <t>pond7</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>66.40000000000001</v>
       </c>
       <c r="D8" t="n">
-        <v>71.31999999999999</v>
+        <v>136.38</v>
       </c>
       <c r="E8" t="n">
-        <v>25.528</v>
+        <v>20.692</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>pond37</t>
+          <t>pond41</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>81.5</v>
+        <v>75.3</v>
       </c>
       <c r="D9" t="n">
-        <v>150.9</v>
+        <v>151.54</v>
       </c>
       <c r="E9" t="n">
-        <v>20.68</v>
+        <v>22.116</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>pond13</t>
+          <t>pond64</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>71.31999999999999</v>
+        <v>139.4</v>
       </c>
       <c r="D10" t="n">
-        <v>125.78</v>
+        <v>177.04</v>
       </c>
       <c r="E10" t="n">
-        <v>21.212</v>
+        <v>18.196</v>
       </c>
     </row>
     <row r="11">
@@ -637,17 +637,17 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>pond6</t>
+          <t>pond38</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>150.9</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>212.56</v>
+        <v>73.28</v>
       </c>
       <c r="E11" t="n">
-        <v>17.144</v>
+        <v>24.852</v>
       </c>
     </row>
     <row r="12">
@@ -656,93 +656,93 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>pond23</t>
+          <t>pond10</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>125.78</v>
+        <v>151.54</v>
       </c>
       <c r="D12" t="n">
-        <v>179.42</v>
+        <v>214.36</v>
       </c>
       <c r="E12" t="n">
-        <v>17.468</v>
+        <v>18.464</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>pond34</t>
+          <t>pond23</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>136.38</v>
       </c>
       <c r="D13" t="n">
-        <v>69.84</v>
+        <v>185.22</v>
       </c>
       <c r="E13" t="n">
-        <v>26.656</v>
+        <v>16.948</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>pond17</t>
+          <t>pond31</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>69.84</v>
+        <v>52.16</v>
       </c>
       <c r="D14" t="n">
-        <v>116.94</v>
+        <v>106.26</v>
       </c>
       <c r="E14" t="n">
-        <v>23.576</v>
+        <v>23.184</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>pond31</t>
+          <t>pond53</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>156.16</v>
+        <v>106.26</v>
       </c>
       <c r="D15" t="n">
-        <v>205.26</v>
+        <v>181.86</v>
       </c>
       <c r="E15" t="n">
-        <v>16.364</v>
+        <v>18.244</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>pond22</t>
+          <t>pond12</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>179.42</v>
+        <v>177.04</v>
       </c>
       <c r="D16" t="n">
-        <v>219.84</v>
+        <v>272.76</v>
       </c>
       <c r="E16" t="n">
-        <v>14.556</v>
+        <v>13.724</v>
       </c>
     </row>
     <row r="17">
@@ -751,207 +751,207 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>pond47</t>
+          <t>pond4</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>116.94</v>
+        <v>272.76</v>
       </c>
       <c r="D17" t="n">
-        <v>197.94</v>
+        <v>305.12</v>
       </c>
       <c r="E17" t="n">
-        <v>20.056</v>
+        <v>11.128</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>pond1</t>
+          <t>pond11</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>305.12</v>
       </c>
       <c r="D18" t="n">
-        <v>64.90000000000001</v>
+        <v>353.38</v>
       </c>
       <c r="E18" t="n">
-        <v>27.64</v>
+        <v>7.432</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>pond3</t>
+          <t>pond47</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>219.84</v>
+        <v>70.59999999999999</v>
       </c>
       <c r="D19" t="n">
-        <v>287.54</v>
+        <v>122.1</v>
       </c>
       <c r="E19" t="n">
-        <v>10.396</v>
+        <v>21.62</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>pond39</t>
+          <t>pond50</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>190</v>
+        <v>122.1</v>
       </c>
       <c r="D20" t="n">
-        <v>247.5</v>
+        <v>193.8</v>
       </c>
       <c r="E20" t="n">
-        <v>15.78</v>
+        <v>17.54</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>pond54</t>
+          <t>pond51</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>205.26</v>
+        <v>214.36</v>
       </c>
       <c r="D21" t="n">
-        <v>259.2</v>
+        <v>279.26</v>
       </c>
       <c r="E21" t="n">
-        <v>13.1</v>
+        <v>15.104</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>pond28</t>
+          <t>pond22</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>259.2</v>
+        <v>279.26</v>
       </c>
       <c r="D22" t="n">
-        <v>325.16</v>
+        <v>344.48</v>
       </c>
       <c r="E22" t="n">
-        <v>9.124000000000001</v>
+        <v>12.192</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>pond11</t>
+          <t>pond1</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>64.90000000000001</v>
+        <v>353.38</v>
       </c>
       <c r="D23" t="n">
-        <v>118.06</v>
+        <v>393.18</v>
       </c>
       <c r="E23" t="n">
-        <v>23.944</v>
+        <v>5.072</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>pond29</t>
+          <t>pond37</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>247.5</v>
+        <v>73.28</v>
       </c>
       <c r="D24" t="n">
-        <v>290.98</v>
+        <v>137.78</v>
       </c>
       <c r="E24" t="n">
-        <v>13.052</v>
+        <v>19.532</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>pond61</t>
+          <t>pond46</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>325.16</v>
+        <v>344.48</v>
       </c>
       <c r="D25" t="n">
-        <v>385.06</v>
+        <v>398.68</v>
       </c>
       <c r="E25" t="n">
-        <v>5.764</v>
+        <v>8.412000000000001</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>pond2</t>
+          <t>pond30</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>212.56</v>
+        <v>181.86</v>
       </c>
       <c r="D26" t="n">
-        <v>262.32</v>
+        <v>237.48</v>
       </c>
       <c r="E26" t="n">
-        <v>14.768</v>
+        <v>14.812</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>pond44</t>
+          <t>pond3</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>118.06</v>
+        <v>398.68</v>
       </c>
       <c r="D27" t="n">
-        <v>175.08</v>
+        <v>481.38</v>
       </c>
       <c r="E27" t="n">
-        <v>20.872</v>
+        <v>4.252</v>
       </c>
     </row>
     <row r="28">
@@ -960,112 +960,112 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>pond53</t>
+          <t>pond27</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>175.08</v>
+        <v>237.48</v>
       </c>
       <c r="D28" t="n">
-        <v>235.78</v>
+        <v>298.58</v>
       </c>
       <c r="E28" t="n">
-        <v>15.932</v>
+        <v>10.812</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>pond56</t>
+          <t>pond59</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>235.78</v>
+        <v>481.38</v>
       </c>
       <c r="D29" t="n">
-        <v>299.52</v>
+        <v>556.98</v>
       </c>
       <c r="E29" t="n">
-        <v>11.668</v>
+        <v>0.332</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>pond15</t>
+          <t>depot2</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>290.98</v>
+        <v>556.98</v>
       </c>
       <c r="D30" t="n">
-        <v>338.58</v>
+        <v>657.8200000000001</v>
       </c>
       <c r="E30" t="n">
-        <v>10.412</v>
+        <v>30</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>pond63</t>
+          <t>pond36</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>299.52</v>
+        <v>185.22</v>
       </c>
       <c r="D31" t="n">
-        <v>345.62</v>
+        <v>248.52</v>
       </c>
       <c r="E31" t="n">
-        <v>8.188000000000001</v>
+        <v>13.228</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>pond59</t>
+          <t>pond21</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>345.62</v>
+        <v>137.78</v>
       </c>
       <c r="D32" t="n">
-        <v>410.82</v>
+        <v>190.58</v>
       </c>
       <c r="E32" t="n">
-        <v>4.268</v>
+        <v>15.392</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>pond33</t>
+          <t>pond63</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>197.94</v>
+        <v>190.58</v>
       </c>
       <c r="D33" t="n">
-        <v>269.1</v>
+        <v>261.58</v>
       </c>
       <c r="E33" t="n">
-        <v>16.52</v>
+        <v>11.912</v>
       </c>
     </row>
     <row r="34">
@@ -1074,36 +1074,36 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>pond26</t>
+          <t>pond62</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>338.58</v>
+        <v>248.52</v>
       </c>
       <c r="D34" t="n">
-        <v>404.72</v>
+        <v>306.64</v>
       </c>
       <c r="E34" t="n">
-        <v>7.388</v>
+        <v>10.036</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>pond38</t>
+          <t>pond48</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>287.54</v>
+        <v>306.64</v>
       </c>
       <c r="D35" t="n">
-        <v>375.12</v>
+        <v>387.24</v>
       </c>
       <c r="E35" t="n">
-        <v>5.248</v>
+        <v>4.096</v>
       </c>
     </row>
     <row r="36">
@@ -1112,17 +1112,17 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>pond20</t>
+          <t>pond28</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>410.82</v>
+        <v>298.58</v>
       </c>
       <c r="D36" t="n">
-        <v>472.84</v>
+        <v>349.64</v>
       </c>
       <c r="E36" t="n">
-        <v>1.196</v>
+        <v>6.836</v>
       </c>
     </row>
     <row r="37">
@@ -1131,79 +1131,79 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>depot1</t>
+          <t>pond42</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>472.84</v>
+        <v>349.64</v>
       </c>
       <c r="D37" t="n">
-        <v>557.05</v>
+        <v>399.4</v>
       </c>
       <c r="E37" t="n">
-        <v>30</v>
+        <v>3.98</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>pond10</t>
+          <t>pond14</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>262.32</v>
+        <v>657.8200000000001</v>
       </c>
       <c r="D38" t="n">
-        <v>305.24</v>
+        <v>713.74</v>
       </c>
       <c r="E38" t="n">
-        <v>11.116</v>
+        <v>27.088</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>pond18</t>
+          <t>pond45</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>404.72</v>
+        <v>193.8</v>
       </c>
       <c r="D39" t="n">
-        <v>440.76</v>
+        <v>253.9</v>
       </c>
       <c r="E39" t="n">
-        <v>4.424</v>
+        <v>13.64</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>pond8</t>
+          <t>pond20</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>375.12</v>
+        <v>399.4</v>
       </c>
       <c r="D40" t="n">
-        <v>444.12</v>
+        <v>456.32</v>
       </c>
       <c r="E40" t="n">
-        <v>1.468</v>
+        <v>0.908</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
@@ -1211,10 +1211,10 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>444.12</v>
+        <v>456.32</v>
       </c>
       <c r="D41" t="n">
-        <v>518.1799999999999</v>
+        <v>541.1</v>
       </c>
       <c r="E41" t="n">
         <v>30</v>
@@ -1226,36 +1226,36 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>pond45</t>
+          <t>pond33</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>305.24</v>
+        <v>261.58</v>
       </c>
       <c r="D42" t="n">
-        <v>380.34</v>
+        <v>342.74</v>
       </c>
       <c r="E42" t="n">
-        <v>7.216</v>
+        <v>8.375999999999999</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>pond32</t>
+          <t>pond34</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>518.1799999999999</v>
+        <v>342.74</v>
       </c>
       <c r="D43" t="n">
-        <v>573.78</v>
+        <v>387.48</v>
       </c>
       <c r="E43" t="n">
-        <v>25.14</v>
+        <v>5.032</v>
       </c>
     </row>
     <row r="44">
@@ -1264,17 +1264,17 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>pond30</t>
+          <t>pond39</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>440.76</v>
+        <v>387.24</v>
       </c>
       <c r="D44" t="n">
-        <v>501.08</v>
+        <v>424.94</v>
       </c>
       <c r="E44" t="n">
-        <v>0.992</v>
+        <v>1.456</v>
       </c>
     </row>
     <row r="45">
@@ -1287,10 +1287,10 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>501.08</v>
+        <v>424.94</v>
       </c>
       <c r="D45" t="n">
-        <v>575.9</v>
+        <v>493.93</v>
       </c>
       <c r="E45" t="n">
         <v>30</v>
@@ -1298,97 +1298,97 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>pond58</t>
+          <t>pond25</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>575.9</v>
+        <v>387.48</v>
       </c>
       <c r="D46" t="n">
-        <v>657.54</v>
+        <v>437.06</v>
       </c>
       <c r="E46" t="n">
-        <v>26.976</v>
+        <v>1.204</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>pond4</t>
+          <t>depot1</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>657.54</v>
+        <v>437.06</v>
       </c>
       <c r="D47" t="n">
-        <v>729.7</v>
+        <v>535.95</v>
       </c>
       <c r="E47" t="n">
-        <v>24.38</v>
+        <v>30</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>pond40</t>
+          <t>pond19</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>557.05</v>
+        <v>493.93</v>
       </c>
       <c r="D48" t="n">
-        <v>613.45</v>
+        <v>562.35</v>
       </c>
       <c r="E48" t="n">
-        <v>25.06</v>
+        <v>26.308</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>pond21</t>
+          <t>pond15</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>269.1</v>
+        <v>253.9</v>
       </c>
       <c r="D49" t="n">
-        <v>341.5</v>
+        <v>311.5</v>
       </c>
       <c r="E49" t="n">
-        <v>12.38</v>
+        <v>11</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>pond41</t>
+          <t>pond58</t>
         </is>
       </c>
       <c r="C50" t="n">
-        <v>385.06</v>
+        <v>541.1</v>
       </c>
       <c r="D50" t="n">
-        <v>461.3</v>
+        <v>622.74</v>
       </c>
       <c r="E50" t="n">
-        <v>1.24</v>
+        <v>26.976</v>
       </c>
     </row>
     <row r="51">
@@ -1397,17 +1397,17 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>depot2</t>
+          <t>pond13</t>
         </is>
       </c>
       <c r="C51" t="n">
-        <v>461.3</v>
+        <v>311.5</v>
       </c>
       <c r="D51" t="n">
-        <v>560.12</v>
+        <v>370.86</v>
       </c>
       <c r="E51" t="n">
-        <v>30</v>
+        <v>6.684</v>
       </c>
     </row>
     <row r="52">
@@ -1416,93 +1416,93 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>pond64</t>
+          <t>pond17</t>
         </is>
       </c>
       <c r="C52" t="n">
-        <v>341.5</v>
+        <v>393.18</v>
       </c>
       <c r="D52" t="n">
-        <v>413.84</v>
+        <v>435.38</v>
       </c>
       <c r="E52" t="n">
-        <v>9.256</v>
+        <v>1.992</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>pond50</t>
+          <t>depot2</t>
         </is>
       </c>
       <c r="C53" t="n">
-        <v>380.34</v>
+        <v>435.38</v>
       </c>
       <c r="D53" t="n">
-        <v>442.24</v>
+        <v>537.7</v>
       </c>
       <c r="E53" t="n">
-        <v>3.136</v>
+        <v>30</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>pond14</t>
+          <t>pond29</t>
         </is>
       </c>
       <c r="C54" t="n">
-        <v>442.24</v>
+        <v>537.7</v>
       </c>
       <c r="D54" t="n">
-        <v>517.36</v>
+        <v>586.6799999999999</v>
       </c>
       <c r="E54" t="n">
-        <v>0.224</v>
+        <v>27.272</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>depot1</t>
+          <t>pond8</t>
         </is>
       </c>
       <c r="C55" t="n">
-        <v>517.36</v>
+        <v>586.6799999999999</v>
       </c>
       <c r="D55" t="n">
-        <v>598.71</v>
+        <v>655.58</v>
       </c>
       <c r="E55" t="n">
-        <v>30</v>
+        <v>23.492</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>pond62</t>
+          <t>pond60</t>
         </is>
       </c>
       <c r="C56" t="n">
-        <v>560.12</v>
+        <v>535.95</v>
       </c>
       <c r="D56" t="n">
-        <v>618.84</v>
+        <v>612.75</v>
       </c>
       <c r="E56" t="n">
-        <v>26.808</v>
+        <v>26.48</v>
       </c>
     </row>
     <row r="57">
@@ -1511,22 +1511,22 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>pond51</t>
+          <t>pond44</t>
         </is>
       </c>
       <c r="C57" t="n">
-        <v>618.84</v>
+        <v>370.86</v>
       </c>
       <c r="D57" t="n">
-        <v>673.54</v>
+        <v>427.88</v>
       </c>
       <c r="E57" t="n">
-        <v>23.448</v>
+        <v>3.612</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
@@ -1534,89 +1534,108 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>673.54</v>
+        <v>622.74</v>
       </c>
       <c r="D58" t="n">
-        <v>718.9400000000001</v>
+        <v>663.24</v>
       </c>
       <c r="E58" t="n">
-        <v>20.528</v>
+        <v>24.056</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>pond42</t>
+          <t>pond18</t>
         </is>
       </c>
       <c r="C59" t="n">
-        <v>573.78</v>
+        <v>562.35</v>
       </c>
       <c r="D59" t="n">
-        <v>643.14</v>
+        <v>603.29</v>
       </c>
       <c r="E59" t="n">
-        <v>22.284</v>
+        <v>23.344</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>pond36</t>
+          <t>pond54</t>
         </is>
       </c>
       <c r="C60" t="n">
-        <v>643.14</v>
+        <v>427.88</v>
       </c>
       <c r="D60" t="n">
-        <v>696.54</v>
+        <v>476.72</v>
       </c>
       <c r="E60" t="n">
-        <v>18.564</v>
+        <v>0.348</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>pond46</t>
+          <t>depot2</t>
         </is>
       </c>
       <c r="C61" t="n">
-        <v>613.45</v>
+        <v>476.72</v>
       </c>
       <c r="D61" t="n">
-        <v>667.45</v>
+        <v>557.8200000000001</v>
       </c>
       <c r="E61" t="n">
-        <v>21.28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>pond25</t>
+          <t>pond2</t>
         </is>
       </c>
       <c r="C62" t="n">
-        <v>598.71</v>
+        <v>557.8200000000001</v>
       </c>
       <c r="D62" t="n">
-        <v>678.29</v>
+        <v>632.98</v>
       </c>
       <c r="E62" t="n">
-        <v>26.172</v>
+        <v>27.624</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>2</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>pond26</t>
+        </is>
+      </c>
+      <c r="C63" t="n">
+        <v>603.29</v>
+      </c>
+      <c r="D63" t="n">
+        <v>639.9299999999999</v>
+      </c>
+      <c r="E63" t="n">
+        <v>20.32</v>
       </c>
     </row>
   </sheetData>
